--- a/extras/TicTacToe/lead_sorted.xlsx
+++ b/extras/TicTacToe/lead_sorted.xlsx
@@ -468,34 +468,34 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>liri</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.19159865379333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>liriii</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>47.10468864440918</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>liri</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.84250354766846</v>
       </c>
     </row>
   </sheetData>
